--- a/cto_р.xlsx
+++ b/cto_р.xlsx
@@ -17,13 +17,14 @@
     <sheet name="Analis &amp; debug" sheetId="8" r:id="rId8"/>
     <sheet name="Win specific" sheetId="9" r:id="rId9"/>
     <sheet name="Linkage" sheetId="10" r:id="rId10"/>
+    <sheet name="Serial types" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="260">
   <si>
     <t>-DSQLITE_ENABLE_EXPLAIN_COMMENTS</t>
   </si>
@@ -704,13 +705,112 @@
   </si>
   <si>
     <t>Из FULL в INCREMENTAL и наоборот можно перейти всегда. Для перехода из OFF в FULL или INCREMENTAL или наоборот необходимо: изменить PRAGMA auto_vacuum, вызвать SQL-команду VACUUM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Формат понятен для версий SQLite до 3.0.0 </t>
+  </si>
+  <si>
+    <t>Добавлена возможность с версии 3.1.3 для строк одной таблицы иметь различное количество стл. Для поддержки ALTER TABLE…ADD COLUMN</t>
+  </si>
+  <si>
+    <t>Добавлена возможность с версии 3.1.4 стл., добавленным через ALTER TABLE…ADD COLUMN иметь не NULL дефолтные значения</t>
+  </si>
+  <si>
+    <t>Добавлена возможность с версии 3.3.0 понимать SQL команду DESC при описании индекса. Также добавлены 2 новых логических типов значения (8 и 9 сериальный типы)</t>
+  </si>
+  <si>
+    <t>Serial Type</t>
+  </si>
+  <si>
+    <t>Content Size</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Value is a NULL.</t>
+  </si>
+  <si>
+    <t>Value is an 8-bit twos-complement integer.</t>
+  </si>
+  <si>
+    <t>Value is a big-endian 16-bit twos-complement integer.</t>
+  </si>
+  <si>
+    <t>Value is a big-endian 24-bit twos-complement integer.</t>
+  </si>
+  <si>
+    <t>Value is a big-endian 32-bit twos-complement integer.</t>
+  </si>
+  <si>
+    <t>Value is a big-endian 48-bit twos-complement integer.</t>
+  </si>
+  <si>
+    <t>Value is a big-endian 64-bit twos-complement integer.</t>
+  </si>
+  <si>
+    <t>Value is a big-endian IEEE 754-2008 64-bit floating point number.</t>
+  </si>
+  <si>
+    <t>Value is the integer 0. (Only available for schema format 4 and higher.)</t>
+  </si>
+  <si>
+    <t>Value is the integer 1. (Only available for schema format 4 and higher.)</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>Reserved for internal use. These serial type codes will never appear in a well-formed database file, but they might be used in transient and temporary database files that SQLite sometimes generates for its own use. The meanings of these codes can shift from one release of SQLite to the next.</t>
+  </si>
+  <si>
+    <t>N≥12 and even</t>
+  </si>
+  <si>
+    <t>(N-12)/2</t>
+  </si>
+  <si>
+    <t>Value is a BLOB that is (N-12)/2 bytes in length.</t>
+  </si>
+  <si>
+    <t>N≥13 and odd</t>
+  </si>
+  <si>
+    <t>(N-13)/2</t>
+  </si>
+  <si>
+    <t>Value is a string in the text encoding and (N-13)/2 bytes in length. The nul terminator is not stored.</t>
+  </si>
+  <si>
+    <t>Значение формата храниться в заголовке БД на 44 сдвиге</t>
+  </si>
+  <si>
+    <t>SQLITE_DBCONFIG_LEGACY_FILE_FORMAT устанавливает 1</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Разрешения для новых БД в UNIX</t>
+  </si>
+  <si>
+    <t>644 - доступ к файлу для глобального чтения, но запись может выполнять только создатель</t>
+  </si>
+  <si>
+    <t>Отключает применение ограничений внешнего ключа для новых соединений БД</t>
+  </si>
+  <si>
+    <t>Включает применение ограничений внешнего ключа для новых соединений БД</t>
+  </si>
+  <si>
+    <t>Существует PRAGMA foreign_keys(=boolean). Действует, если в данный момент нет BEGIN или SAVEPOINT. Действует даже на prepared statements созданные до использования PRAGMA'ы. Использование sqlite3_prepare() может привести к ошибке, использовать sqlite3_prepare_v2()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,8 +835,48 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -749,8 +889,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -758,12 +904,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF444444"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -782,6 +958,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1196,6 +1394,186 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>10.11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" location="schemaformat" display="../Downloads/31-08-2020-master/sqlite-doc-3330000/fileformat2.html - schemaformat"/>
+    <hyperlink ref="C11" r:id="rId2" location="schemaformat" display="../Downloads/31-08-2020-master/sqlite-doc-3330000/fileformat2.html - schemaformat"/>
+    <hyperlink ref="C14" r:id="rId3" location="enc" display="../Downloads/31-08-2020-master/sqlite-doc-3330000/fileformat2.html - enc"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
@@ -1312,10 +1690,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1702,7 @@
     <col min="2" max="2" width="6.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="92.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="5" max="5" width="26.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="47" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
@@ -1399,7 +1777,7 @@
       <c r="C6" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="14" t="s">
         <v>225</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1415,164 +1793,234 @@
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>60</v>
       </c>
     </row>
